--- a/otherdata/关注.xlsx
+++ b/otherdata/关注.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="12630" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192">
   <si>
     <t>user</t>
   </si>
@@ -236,6 +236,9 @@
     <t>Mobile</t>
   </si>
   <si>
+    <t>Gender</t>
+  </si>
+  <si>
     <t>WXFlag</t>
   </si>
   <si>
@@ -245,6 +248,9 @@
     <t>CrtTime</t>
   </si>
   <si>
+    <t>v</t>
+  </si>
+  <si>
     <t>用户集</t>
   </si>
   <si>
@@ -266,6 +272,9 @@
     <t>手机号</t>
   </si>
   <si>
+    <t>性别</t>
+  </si>
+  <si>
     <t>微信标记</t>
   </si>
   <si>
@@ -275,12 +284,129 @@
     <t>创建时间</t>
   </si>
   <si>
+    <t>1,普通用户</t>
+  </si>
+  <si>
+    <t>2,作者</t>
+  </si>
+  <si>
+    <t>3,管理员</t>
+  </si>
+  <si>
+    <t>freezes</t>
+  </si>
+  <si>
+    <t>UserId</t>
+  </si>
+  <si>
+    <t>WhoMade</t>
+  </si>
+  <si>
+    <t>WhyFreeze</t>
+  </si>
+  <si>
+    <t>FromDate</t>
+  </si>
+  <si>
+    <t>FinishDate</t>
+  </si>
+  <si>
+    <t>封停集</t>
+  </si>
+  <si>
+    <t>用户编码</t>
+  </si>
+  <si>
+    <t>封停类型</t>
+  </si>
+  <si>
+    <t>谁封停的</t>
+  </si>
+  <si>
+    <t>封停原因</t>
+  </si>
+  <si>
+    <t>起始时间</t>
+  </si>
+  <si>
+    <t>结束时间</t>
+  </si>
+  <si>
+    <t>1-禁止登陆</t>
+  </si>
+  <si>
+    <t>2-禁止评论</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>ProductId</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>IsPay</t>
+  </si>
+  <si>
+    <t>PayType</t>
+  </si>
+  <si>
+    <t>PayKey</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>订单集</t>
+  </si>
+  <si>
+    <t>产品</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>总价</t>
+  </si>
+  <si>
+    <t>是否支付</t>
+  </si>
+  <si>
+    <t>支付方式</t>
+  </si>
+  <si>
+    <t>支付标识</t>
+  </si>
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>products</t>
+  </si>
+  <si>
+    <t>ProductName</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>产品集</t>
+  </si>
+  <si>
+    <t>产品名称</t>
+  </si>
+  <si>
+    <t>单价</t>
+  </si>
+  <si>
     <t>asset</t>
   </si>
   <si>
-    <t>UserId</t>
-  </si>
-  <si>
     <t>FireWood</t>
   </si>
   <si>
@@ -293,9 +419,6 @@
     <t>资产集</t>
   </si>
   <si>
-    <t>用户编码</t>
-  </si>
-  <si>
     <t>柴火</t>
   </si>
   <si>
@@ -305,7 +428,7 @@
     <t>喇叭</t>
   </si>
   <si>
-    <t>annals</t>
+    <t>articles</t>
   </si>
   <si>
     <t>AuthorId</t>
@@ -314,6 +437,9 @@
     <t>Title</t>
   </si>
   <si>
+    <t>IsCopy</t>
+  </si>
+  <si>
     <t>FromWhere</t>
   </si>
   <si>
@@ -326,7 +452,22 @@
     <t>Angry</t>
   </si>
   <si>
-    <t>Date</t>
+    <t>IsApplyDel</t>
+  </si>
+  <si>
+    <t>ApplyReason</t>
+  </si>
+  <si>
+    <t>IsDel</t>
+  </si>
+  <si>
+    <t>WhyDel</t>
+  </si>
+  <si>
+    <t>IsHot</t>
+  </si>
+  <si>
+    <t>WhyHot</t>
   </si>
   <si>
     <t>文章集</t>
@@ -338,6 +479,9 @@
     <t>标题</t>
   </si>
   <si>
+    <t>是否转载</t>
+  </si>
+  <si>
     <t>转载自</t>
   </si>
   <si>
@@ -353,7 +497,22 @@
     <t>怒火值</t>
   </si>
   <si>
-    <t>时间</t>
+    <t>是否申请删除</t>
+  </si>
+  <si>
+    <t>申请删除原因</t>
+  </si>
+  <si>
+    <t>是否已删除</t>
+  </si>
+  <si>
+    <t>删除原因</t>
+  </si>
+  <si>
+    <t>是否热点</t>
+  </si>
+  <si>
+    <t>热点原因</t>
   </si>
   <si>
     <t>comments</t>
@@ -365,6 +524,21 @@
     <t>Content</t>
   </si>
   <si>
+    <t>ToComment</t>
+  </si>
+  <si>
+    <t>WhoDel</t>
+  </si>
+  <si>
+    <t>IsRead</t>
+  </si>
+  <si>
+    <t>IsReadAuthor</t>
+  </si>
+  <si>
+    <t>IsReadAdmin</t>
+  </si>
+  <si>
     <t>评论集</t>
   </si>
   <si>
@@ -377,6 +551,27 @@
     <t>类型</t>
   </si>
   <si>
+    <t>回复哪条评论</t>
+  </si>
+  <si>
+    <t>谁删除的</t>
+  </si>
+  <si>
+    <t>被回复者已读</t>
+  </si>
+  <si>
+    <t>作者已读</t>
+  </si>
+  <si>
+    <t>管理员已读</t>
+  </si>
+  <si>
+    <t>1-回复文章</t>
+  </si>
+  <si>
+    <t>2-回复评论</t>
+  </si>
+  <si>
     <t>logs</t>
   </si>
   <si>
@@ -401,64 +596,13 @@
     <t>地址</t>
   </si>
   <si>
-    <t>orders</t>
-  </si>
-  <si>
-    <t>ProductId</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>Cost</t>
-  </si>
-  <si>
-    <t>IsPay</t>
-  </si>
-  <si>
-    <t>PayType</t>
-  </si>
-  <si>
-    <t>PayKey</t>
-  </si>
-  <si>
-    <t>订单集</t>
-  </si>
-  <si>
-    <t>产品</t>
-  </si>
-  <si>
-    <t>数量</t>
-  </si>
-  <si>
-    <t>总价</t>
-  </si>
-  <si>
-    <t>是否支付</t>
-  </si>
-  <si>
-    <t>支付方式</t>
-  </si>
-  <si>
-    <t>支付标识</t>
-  </si>
-  <si>
-    <t>products</t>
-  </si>
-  <si>
-    <t>ProductName</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>产品集</t>
-  </si>
-  <si>
-    <t>产品名称</t>
-  </si>
-  <si>
-    <t>单价</t>
+    <t>1-登录</t>
+  </si>
+  <si>
+    <t>2-充值</t>
+  </si>
+  <si>
+    <t>作者</t>
   </si>
 </sst>
 </file>
@@ -466,22 +610,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0" tint="-0.15"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -501,6 +638,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -511,6 +663,44 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -534,9 +724,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -557,6 +747,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -564,51 +761,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -628,24 +781,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="39">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -654,12 +791,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -684,12 +815,102 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.05"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -702,30 +923,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -744,36 +989,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -808,74 +1023,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="24">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -884,13 +1033,39 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom/>
@@ -903,8 +1078,60 @@
       <right style="medium">
         <color auto="1"/>
       </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -916,7 +1143,7 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="medium">
@@ -928,13 +1155,13 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -946,6 +1173,32 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -970,7 +1223,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -979,16 +1232,74 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="thin">
@@ -1001,20 +1312,7 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="thin">
@@ -1026,75 +1324,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1140,6 +1380,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -1170,32 +1421,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1204,10 +1429,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1216,234 +1441,267 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1499,6 +1757,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1792,8 +2055,8 @@
   <sheetPr/>
   <dimension ref="D5:R24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1817,509 +2080,509 @@
   <sheetData>
     <row r="5" ht="14.25"/>
     <row r="6" spans="4:17">
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="J6" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="K6" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="18" t="s">
+      <c r="L6" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="18" t="s">
+      <c r="M6" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="18" t="s">
+      <c r="N6" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="18" t="s">
+      <c r="O6" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="27" t="s">
+      <c r="P6" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="Q6" s="28"/>
+      <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="4:17">
-      <c r="D7" s="19"/>
-      <c r="E7" s="20" t="s">
+      <c r="D7" s="31"/>
+      <c r="E7" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="I7" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="20" t="s">
+      <c r="J7" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="20" t="s">
+      <c r="K7" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="20" t="s">
+      <c r="L7" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="M7" s="20" t="s">
+      <c r="M7" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="20" t="s">
+      <c r="N7" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="20" t="s">
+      <c r="O7" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="P7" s="29" t="s">
+      <c r="P7" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="28"/>
+      <c r="Q7" s="1"/>
     </row>
     <row r="8" ht="41.25" spans="4:17">
-      <c r="D8" s="21"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="23" t="s">
+      <c r="D8" s="33"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="23" t="s">
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="28"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="4:17">
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="I9" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="18" t="s">
+      <c r="J9" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="18" t="s">
+      <c r="K9" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="18" t="s">
+      <c r="L9" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="18" t="s">
+      <c r="M9" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="18" t="s">
+      <c r="N9" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="O9" s="18" t="s">
+      <c r="O9" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="P9" s="18" t="s">
+      <c r="P9" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="Q9" s="27" t="s">
+      <c r="Q9" s="39" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="4:17">
-      <c r="D10" s="19"/>
-      <c r="E10" s="20" t="s">
+      <c r="D10" s="31"/>
+      <c r="E10" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="20" t="s">
+      <c r="H10" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="20" t="s">
+      <c r="I10" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="20" t="s">
+      <c r="J10" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="20" t="s">
+      <c r="K10" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="L10" s="20" t="s">
+      <c r="L10" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="M10" s="20" t="s">
+      <c r="M10" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="N10" s="20" t="s">
+      <c r="N10" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="O10" s="20" t="s">
+      <c r="O10" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="P10" s="20" t="s">
+      <c r="P10" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="Q10" s="29" t="s">
+      <c r="Q10" s="40" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" ht="27.75" spans="4:17">
-      <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="26" t="s">
+      <c r="D11" s="36"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25" t="s">
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25" t="s">
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="O11" s="25" t="s">
+      <c r="O11" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="P11" s="25" t="s">
+      <c r="P11" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="Q11" s="31" t="s">
+      <c r="Q11" s="42" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="4:17">
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="27" t="s">
+      <c r="G12" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="4:17">
-      <c r="D13" s="19"/>
-      <c r="E13" s="20" t="s">
+      <c r="D13" s="31"/>
+      <c r="E13" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="G13" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
     </row>
     <row r="14" ht="14.25" spans="4:17">
-      <c r="D14" s="21"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="30" t="s">
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="4:18">
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="18" t="s">
+      <c r="H15" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="I15" s="18" t="s">
+      <c r="I15" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="18" t="s">
+      <c r="J15" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="K15" s="18" t="s">
+      <c r="K15" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="L15" s="18" t="s">
+      <c r="L15" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="M15" s="18" t="s">
+      <c r="M15" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="N15" s="18" t="s">
+      <c r="N15" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="O15" s="18" t="s">
+      <c r="O15" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="P15" s="18" t="s">
+      <c r="P15" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="Q15" s="18" t="s">
+      <c r="Q15" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="R15" s="27" t="s">
+      <c r="R15" s="39" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="16" spans="4:18">
-      <c r="D16" s="19"/>
-      <c r="E16" s="20" t="s">
+      <c r="D16" s="31"/>
+      <c r="E16" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="20" t="s">
+      <c r="H16" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="20" t="s">
+      <c r="I16" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="20" t="s">
+      <c r="J16" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="K16" s="20" t="s">
+      <c r="K16" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="L16" s="20" t="s">
+      <c r="L16" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="M16" s="20" t="s">
+      <c r="M16" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="N16" s="20" t="s">
+      <c r="N16" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="O16" s="20" t="s">
+      <c r="O16" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="P16" s="20" t="s">
+      <c r="P16" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="Q16" s="20" t="s">
+      <c r="Q16" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="R16" s="29" t="s">
+      <c r="R16" s="40" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="4:18">
-      <c r="D17" s="24"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25" t="s">
+      <c r="D17" s="36"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25" t="s">
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="31"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="42"/>
     </row>
     <row r="18" spans="4:17">
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="H18" s="27" t="s">
+      <c r="H18" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="4:17">
-      <c r="D19" s="19"/>
-      <c r="E19" s="20" t="s">
+      <c r="D19" s="31"/>
+      <c r="E19" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="20" t="s">
+      <c r="G19" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="H19" s="29" t="s">
+      <c r="H19" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="28"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
     </row>
     <row r="20" ht="14.25" spans="4:17">
-      <c r="D20" s="24"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25" t="s">
+      <c r="D20" s="36"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="H20" s="31"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="4:8">
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="F21" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="18" t="s">
+      <c r="G21" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="H21" s="27" t="s">
+      <c r="H21" s="39" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="22" spans="4:8">
-      <c r="D22" s="19"/>
-      <c r="E22" s="20" t="s">
+      <c r="D22" s="31"/>
+      <c r="E22" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="20" t="s">
+      <c r="G22" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="29" t="s">
+      <c r="H22" s="40" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="23" ht="108.75" spans="4:8">
-      <c r="D23" s="24"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="26" t="s">
+      <c r="D23" s="36"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="31"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="42"/>
     </row>
     <row r="24" spans="6:6">
-      <c r="F24" s="32"/>
+      <c r="F24" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2339,416 +2602,648 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B1:M32"/>
+  <dimension ref="A2:S36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="L25" sqref="A29 L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="2.375" style="2" customWidth="1"/>
     <col min="3" max="3" width="9.375" style="3" customWidth="1"/>
     <col min="4" max="4" width="9.375" style="4" customWidth="1"/>
     <col min="5" max="5" width="12.625" style="2" customWidth="1"/>
-    <col min="6" max="7" width="10.375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="8.875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.625" style="2" customWidth="1"/>
-    <col min="11" max="13" width="8.875" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="2"/>
+    <col min="6" max="6" width="11" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="8.875" style="2" customWidth="1"/>
+    <col min="13" max="14" width="12.875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="13.75" style="2" customWidth="1"/>
+    <col min="16" max="16" width="12.625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="11" style="2" customWidth="1"/>
+    <col min="18" max="18" width="11.75" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:4">
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" ht="14.25" spans="3:10">
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="14" t="s">
+    <row r="2" ht="14.25" spans="9:10">
+      <c r="I2" s="22"/>
+      <c r="J2" s="23" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="3:10">
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="14" t="s">
+    <row r="3" ht="14.25" spans="9:10">
+      <c r="I3" s="24"/>
+      <c r="J3" s="23" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="3:4">
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="10" customHeight="1" spans="3:7">
-      <c r="C5" s="5"/>
-      <c r="D5" s="1"/>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" ht="14.25"/>
-    <row r="7" spans="2:13">
-      <c r="B7" s="2">
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="3:10">
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="J4" s="25"/>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5" s="5">
         <v>1</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D5" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E5" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G5" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H5" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I5" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J5" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K5" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L5" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M5" s="16" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="8" ht="14.25" spans="3:13">
-      <c r="C8" s="3" t="s">
+      <c r="N5" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="11" t="s">
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="D6" s="12"/>
+      <c r="E6" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="F6" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="G6" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="H6" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="I6" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="J6" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="K6" s="15" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="10" ht="14.25"/>
-    <row r="11" spans="2:8">
-      <c r="B11" s="2">
+      <c r="L6" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="13:13">
+      <c r="M7" s="26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="13:13">
+      <c r="M8" s="26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="13:13">
+      <c r="M9" s="18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="5">
         <v>2</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" spans="3:8">
-      <c r="C12" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="F12" s="2" t="s">
+      <c r="E11" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="F11" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H11" s="15" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="15" spans="2:12">
-      <c r="B15" s="2">
+      <c r="I11" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="11"/>
+      <c r="C12" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="6:6">
+      <c r="F13" s="17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="6:6">
+      <c r="F14" s="18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="6:6">
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="B16" s="5">
         <v>3</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" s="4" t="s">
+      <c r="C16" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G15" s="2" t="s">
+      <c r="E16" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="L16" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" s="11"/>
+      <c r="C17" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="3:12">
-      <c r="C16" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9">
-      <c r="B19" s="2">
+      <c r="F17" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="L17" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="5">
         <v>4</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D19" s="4" t="s">
+      <c r="C19" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F19" s="2" t="s">
+      <c r="E19" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="11"/>
+      <c r="C20" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25"/>
+    <row r="22" spans="2:8">
+      <c r="B22" s="5">
+        <v>5</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" spans="2:8">
+      <c r="B23" s="11"/>
+      <c r="C23" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19">
+      <c r="B25" s="5">
+        <v>6</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="J25" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="K25" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="L25" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="M25" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="N25" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="O25" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="P25" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q25" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="R25" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="S25" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="3:9">
-      <c r="C20" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9">
-      <c r="B23" s="2">
-        <v>5</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D23" s="4" t="s">
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="J26" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="K26" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="L26" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="M26" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="N26" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="O26" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="P26" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q26" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="R26" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="S26" s="19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16">
+      <c r="B28" s="5">
+        <v>7</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G23" s="2" t="s">
+      <c r="E28" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="K28" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="L28" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="M28" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="N28" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="O28" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="P28" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="J29" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="K29" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="L29" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="M29" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="N29" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="O29" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="P29" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="3:9">
-      <c r="C24" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12">
-      <c r="B27" s="2">
-        <v>6</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D27" s="4" t="s">
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="20"/>
+      <c r="D30" s="21"/>
+      <c r="H30" s="17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="20"/>
+      <c r="D31" s="21"/>
+      <c r="H31" s="18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="5">
+        <v>8</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12">
-      <c r="C28" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="B31" s="2">
-        <v>7</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="32" spans="3:6">
-      <c r="C32" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>143</v>
+      <c r="E33" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="11"/>
+      <c r="C34" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D34" s="12"/>
+      <c r="E34" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="I34" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="6:6">
+      <c r="F35" s="17" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="36" spans="6:6">
+      <c r="F36" s="18" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D33:D34"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -2758,14 +3253,20 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="4" spans="4:4">
+      <c r="D4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
